--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ncam1-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ncam1-Fgfr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Ncam1</t>
+  </si>
+  <si>
+    <t>Fgfr1</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Ncam1</t>
-  </si>
-  <si>
-    <t>Fgfr1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.66889</v>
+        <v>1.1829055</v>
       </c>
       <c r="H2">
-        <v>1.33778</v>
+        <v>2.365811</v>
       </c>
       <c r="I2">
-        <v>0.01180009979280774</v>
+        <v>0.04349966202328188</v>
       </c>
       <c r="J2">
-        <v>0.01150792026947964</v>
+        <v>0.04164321481729736</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.077153</v>
+        <v>10.402079</v>
       </c>
       <c r="N2">
-        <v>20.154306</v>
+        <v>20.804158</v>
       </c>
       <c r="O2">
-        <v>0.08561976287781047</v>
+        <v>0.117441350183963</v>
       </c>
       <c r="P2">
-        <v>0.06709546746404282</v>
+        <v>0.08862141909929068</v>
       </c>
       <c r="Q2">
-        <v>6.740506870169999</v>
+        <v>12.3046764605345</v>
       </c>
       <c r="R2">
-        <v>26.96202748068</v>
+        <v>49.218705842138</v>
       </c>
       <c r="S2">
-        <v>0.001010321746194699</v>
+        <v>0.005108659040560282</v>
       </c>
       <c r="T2">
-        <v>0.0007721292900196702</v>
+        <v>0.003690480792965501</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.66889</v>
+        <v>1.1829055</v>
       </c>
       <c r="H3">
-        <v>1.33778</v>
+        <v>2.365811</v>
       </c>
       <c r="I3">
-        <v>0.01180009979280774</v>
+        <v>0.04349966202328188</v>
       </c>
       <c r="J3">
-        <v>0.01150792026947964</v>
+        <v>0.04164321481729736</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>168.501376</v>
       </c>
       <c r="O3">
-        <v>0.4772197020892965</v>
+        <v>0.6341369869521791</v>
       </c>
       <c r="P3">
-        <v>0.560955985835208</v>
+        <v>0.7177810830557603</v>
       </c>
       <c r="Q3">
-        <v>37.56962846421333</v>
+        <v>66.44040147598933</v>
       </c>
       <c r="R3">
-        <v>225.41777078528</v>
+        <v>398.642408855936</v>
       </c>
       <c r="S3">
-        <v>0.00563124010774768</v>
+        <v>0.0275847446088821</v>
       </c>
       <c r="T3">
-        <v>0.006455436759678925</v>
+        <v>0.02989071183348338</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.66889</v>
+        <v>1.1829055</v>
       </c>
       <c r="H4">
-        <v>1.33778</v>
+        <v>2.365811</v>
       </c>
       <c r="I4">
-        <v>0.01180009979280774</v>
+        <v>0.04349966202328188</v>
       </c>
       <c r="J4">
-        <v>0.01150792026947964</v>
+        <v>0.04164321481729736</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9207109999999999</v>
+        <v>0.2909543333333333</v>
       </c>
       <c r="N4">
-        <v>2.762133</v>
+        <v>0.8728629999999999</v>
       </c>
       <c r="O4">
-        <v>0.007822750880034444</v>
+        <v>0.003284926960133785</v>
       </c>
       <c r="P4">
-        <v>0.009195385087080598</v>
+        <v>0.003718216220971988</v>
       </c>
       <c r="Q4">
-        <v>0.61585438079</v>
+        <v>0.3441714811488333</v>
       </c>
       <c r="R4">
-        <v>3.69512628474</v>
+        <v>2.065028886893</v>
       </c>
       <c r="S4">
-        <v>9.230924103868103E-05</v>
+        <v>0.0001428932125369864</v>
       </c>
       <c r="T4">
-        <v>0.0001058197584292856</v>
+        <v>0.0001548384768270961</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.66889</v>
+        <v>1.1829055</v>
       </c>
       <c r="H5">
-        <v>1.33778</v>
+        <v>2.365811</v>
       </c>
       <c r="I5">
-        <v>0.01180009979280774</v>
+        <v>0.04349966202328188</v>
       </c>
       <c r="J5">
-        <v>0.01150792026947964</v>
+        <v>0.04164321481729736</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>42.6300515</v>
+        <v>20.562391</v>
       </c>
       <c r="N5">
-        <v>85.260103</v>
+        <v>41.124782</v>
       </c>
       <c r="O5">
-        <v>0.362202985396654</v>
+        <v>0.232153107282743</v>
       </c>
       <c r="P5">
-        <v>0.2838384247424566</v>
+        <v>0.175183083160057</v>
       </c>
       <c r="Q5">
-        <v>28.514815147835</v>
+        <v>24.3233654070505</v>
       </c>
       <c r="R5">
-        <v>114.05926059134</v>
+        <v>97.29346162820198</v>
       </c>
       <c r="S5">
-        <v>0.004274031372933402</v>
+        <v>0.01009858170445402</v>
       </c>
       <c r="T5">
-        <v>0.003266389961350888</v>
+        <v>0.00729518676439072</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.66889</v>
+        <v>1.1829055</v>
       </c>
       <c r="H6">
-        <v>1.33778</v>
+        <v>2.365811</v>
       </c>
       <c r="I6">
-        <v>0.01180009979280774</v>
+        <v>0.04349966202328188</v>
       </c>
       <c r="J6">
-        <v>0.01150792026947964</v>
+        <v>0.04164321481729736</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.460321333333333</v>
+        <v>0.5741476666666667</v>
       </c>
       <c r="N6">
-        <v>19.380964</v>
+        <v>1.722443</v>
       </c>
       <c r="O6">
-        <v>0.05488962811961477</v>
+        <v>0.006482230828885768</v>
       </c>
       <c r="P6">
-        <v>0.06452094353850663</v>
+        <v>0.007337251667557973</v>
       </c>
       <c r="Q6">
-        <v>4.321244336653333</v>
+        <v>0.6791624327121667</v>
       </c>
       <c r="R6">
-        <v>25.92746601992</v>
+        <v>4.074974596273</v>
       </c>
       <c r="S6">
-        <v>0.0006477030894015602</v>
+        <v>0.0002819748502134293</v>
       </c>
       <c r="T6">
-        <v>0.0007425018739527319</v>
+        <v>0.00030554674736069</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,14 +838,14 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
         <v>2</v>
       </c>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.66889</v>
+        <v>1.1829055</v>
       </c>
       <c r="H7">
-        <v>1.33778</v>
+        <v>2.365811</v>
       </c>
       <c r="I7">
-        <v>0.01180009979280774</v>
+        <v>0.04349966202328188</v>
       </c>
       <c r="J7">
-        <v>0.01150792026947964</v>
+        <v>0.04164321481729736</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.441214666666667</v>
+        <v>0.5758453333333333</v>
       </c>
       <c r="N7">
-        <v>4.323644</v>
+        <v>1.727536</v>
       </c>
       <c r="O7">
-        <v>0.01224517063658978</v>
+        <v>0.006501397792095299</v>
       </c>
       <c r="P7">
-        <v>0.01439379333270538</v>
+        <v>0.00735894679636216</v>
       </c>
       <c r="Q7">
-        <v>0.9640140783866665</v>
+        <v>0.6811706119493333</v>
       </c>
       <c r="R7">
-        <v>5.78408447032</v>
+        <v>4.087023671696</v>
       </c>
       <c r="S7">
-        <v>0.0001444942354917185</v>
+        <v>0.0002828086066350565</v>
       </c>
       <c r="T7">
-        <v>0.0001656426260481411</v>
+        <v>0.0003064502022699717</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>7.049111</v>
       </c>
       <c r="I8">
-        <v>0.04145186465665943</v>
+        <v>0.08640699984476037</v>
       </c>
       <c r="J8">
-        <v>0.0606382270318826</v>
+        <v>0.1240790763268806</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.077153</v>
+        <v>10.402079</v>
       </c>
       <c r="N8">
-        <v>20.154306</v>
+        <v>20.804158</v>
       </c>
       <c r="O8">
-        <v>0.08561976287781047</v>
+        <v>0.117441350183963</v>
       </c>
       <c r="P8">
-        <v>0.06709546746404282</v>
+        <v>0.08862141909929068</v>
       </c>
       <c r="Q8">
-        <v>23.678323353661</v>
+        <v>24.44180316725634</v>
       </c>
       <c r="R8">
-        <v>142.069940121966</v>
+        <v>146.650819003538</v>
       </c>
       <c r="S8">
-        <v>0.003549098822746272</v>
+        <v>0.01014775472711414</v>
       </c>
       <c r="T8">
-        <v>0.004068550188894921</v>
+        <v>0.01099606382461737</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>7.049111</v>
       </c>
       <c r="I9">
-        <v>0.04145186465665943</v>
+        <v>0.08640699984476037</v>
       </c>
       <c r="J9">
-        <v>0.0606382270318826</v>
+        <v>0.1240790763268806</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>168.501376</v>
       </c>
       <c r="O9">
-        <v>0.4772197020892965</v>
+        <v>0.6341369869521791</v>
       </c>
       <c r="P9">
-        <v>0.560955985835208</v>
+        <v>0.7177810830557603</v>
       </c>
       <c r="Q9">
         <v>131.9761003418595</v>
@@ -1013,10 +1013,10 @@
         <v>1187.784903076736</v>
       </c>
       <c r="S9">
-        <v>0.01978164650249685</v>
+        <v>0.05479387453313375</v>
       </c>
       <c r="T9">
-        <v>0.03401537642396886</v>
+        <v>0.08906161379046673</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>7.049111</v>
       </c>
       <c r="I10">
-        <v>0.04145186465665943</v>
+        <v>0.08640699984476037</v>
       </c>
       <c r="J10">
-        <v>0.0606382270318826</v>
+        <v>0.1240790763268806</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9207109999999999</v>
+        <v>0.2909543333333333</v>
       </c>
       <c r="N10">
-        <v>2.762133</v>
+        <v>0.8728629999999999</v>
       </c>
       <c r="O10">
-        <v>0.007822750880034444</v>
+        <v>0.003284926960133785</v>
       </c>
       <c r="P10">
-        <v>0.009195385087080598</v>
+        <v>0.003718216220971988</v>
       </c>
       <c r="Q10">
-        <v>2.163398012640333</v>
+        <v>0.6836564638658889</v>
       </c>
       <c r="R10">
-        <v>19.470582113763</v>
+        <v>6.152908174793</v>
       </c>
       <c r="S10">
-        <v>0.0003242676107219512</v>
+        <v>0.0002838406833343291</v>
       </c>
       <c r="T10">
-        <v>0.0005575918485559809</v>
+        <v>0.000461352834281829</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>7.049111</v>
       </c>
       <c r="I11">
-        <v>0.04145186465665943</v>
+        <v>0.08640699984476037</v>
       </c>
       <c r="J11">
-        <v>0.0606382270318826</v>
+        <v>0.1240790763268806</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>42.6300515</v>
+        <v>20.562391</v>
       </c>
       <c r="N11">
-        <v>85.260103</v>
+        <v>41.124782</v>
       </c>
       <c r="O11">
-        <v>0.362202985396654</v>
+        <v>0.232153107282743</v>
       </c>
       <c r="P11">
-        <v>0.2838384247424566</v>
+        <v>0.175183083160057</v>
       </c>
       <c r="Q11">
-        <v>100.1679883197388</v>
+        <v>48.31552552813366</v>
       </c>
       <c r="R11">
-        <v>601.007929918433</v>
+        <v>289.893153168802</v>
       </c>
       <c r="S11">
-        <v>0.01501398912890009</v>
+        <v>0.02005965350494061</v>
       </c>
       <c r="T11">
-        <v>0.01721145883990501</v>
+        <v>0.02173655514659499</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>7.049111</v>
       </c>
       <c r="I12">
-        <v>0.04145186465665943</v>
+        <v>0.08640699984476037</v>
       </c>
       <c r="J12">
-        <v>0.0606382270318826</v>
+        <v>0.1240790763268806</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.460321333333333</v>
+        <v>0.5741476666666667</v>
       </c>
       <c r="N12">
-        <v>19.380964</v>
+        <v>1.722443</v>
       </c>
       <c r="O12">
-        <v>0.05488962811961477</v>
+        <v>0.006482230828885768</v>
       </c>
       <c r="P12">
-        <v>0.06452094353850663</v>
+        <v>0.007337251667557973</v>
       </c>
       <c r="Q12">
-        <v>15.17984072477822</v>
+        <v>1.349076877574778</v>
       </c>
       <c r="R12">
-        <v>136.618566523004</v>
+        <v>12.141691898173</v>
       </c>
       <c r="S12">
-        <v>0.002275277435868639</v>
+        <v>0.0005601101182252335</v>
       </c>
       <c r="T12">
-        <v>0.003912435622599244</v>
+        <v>0.000910399409688458</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>7.049111</v>
       </c>
       <c r="I13">
-        <v>0.04145186465665943</v>
+        <v>0.08640699984476037</v>
       </c>
       <c r="J13">
-        <v>0.0606382270318826</v>
+        <v>0.1240790763268806</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.441214666666667</v>
+        <v>0.5758453333333333</v>
       </c>
       <c r="N13">
-        <v>4.323644</v>
+        <v>1.727536</v>
       </c>
       <c r="O13">
-        <v>0.01224517063658978</v>
+        <v>0.006501397792095299</v>
       </c>
       <c r="P13">
-        <v>0.01439379333270538</v>
+        <v>0.00735894679636216</v>
       </c>
       <c r="Q13">
-        <v>3.386427386720444</v>
+        <v>1.353065891166222</v>
       </c>
       <c r="R13">
-        <v>30.477846480484</v>
+        <v>12.177593020496</v>
       </c>
       <c r="S13">
-        <v>0.0005075851559256198</v>
+        <v>0.0005617662780123039</v>
       </c>
       <c r="T13">
-        <v>0.0008728141079585868</v>
+        <v>0.0009130913212312742</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,19 +1284,19 @@
         <v>2</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.02107333333333333</v>
+        <v>23.585978</v>
       </c>
       <c r="H14">
-        <v>0.06322</v>
+        <v>47.17195599999999</v>
       </c>
       <c r="I14">
-        <v>0.0003717613304137229</v>
+        <v>0.8673406890817245</v>
       </c>
       <c r="J14">
-        <v>0.0005438343520134124</v>
+        <v>0.8303249486371054</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.077153</v>
+        <v>10.402079</v>
       </c>
       <c r="N14">
-        <v>20.154306</v>
+        <v>20.804158</v>
       </c>
       <c r="O14">
-        <v>0.08561976287781047</v>
+        <v>0.117441350183963</v>
       </c>
       <c r="P14">
-        <v>0.06709546746404282</v>
+        <v>0.08862141909929068</v>
       </c>
       <c r="Q14">
-        <v>0.21235920422</v>
+        <v>245.343206448262</v>
       </c>
       <c r="R14">
-        <v>1.27415522532</v>
+        <v>981.3728257930479</v>
       </c>
       <c r="S14">
-        <v>3.18301169571623E-05</v>
+        <v>0.1018616615952466</v>
       </c>
       <c r="T14">
-        <v>3.648882007134473E-05</v>
+        <v>0.07358457526176593</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,19 +1346,19 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.02107333333333333</v>
+        <v>23.585978</v>
       </c>
       <c r="H15">
-        <v>0.06322</v>
+        <v>47.17195599999999</v>
       </c>
       <c r="I15">
-        <v>0.0003717613304137229</v>
+        <v>0.8673406890817245</v>
       </c>
       <c r="J15">
-        <v>0.0005438343520134124</v>
+        <v>0.8303249486371054</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>168.501376</v>
       </c>
       <c r="O15">
-        <v>0.4772197020892965</v>
+        <v>0.6341369869521791</v>
       </c>
       <c r="P15">
-        <v>0.560955985835208</v>
+        <v>0.7177810830557603</v>
       </c>
       <c r="Q15">
-        <v>1.183628554524444</v>
+        <v>1324.756582435243</v>
       </c>
       <c r="R15">
-        <v>10.65265699072</v>
+        <v>7948.539494611455</v>
       </c>
       <c r="S15">
-        <v>0.0001774118313483574</v>
+        <v>0.5500128112353115</v>
       </c>
       <c r="T15">
-        <v>0.0003050671350647353</v>
+        <v>0.59599154092096</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.02107333333333333</v>
+        <v>23.585978</v>
       </c>
       <c r="H16">
-        <v>0.06322</v>
+        <v>47.17195599999999</v>
       </c>
       <c r="I16">
-        <v>0.0003717613304137229</v>
+        <v>0.8673406890817245</v>
       </c>
       <c r="J16">
-        <v>0.0005438343520134124</v>
+        <v>0.8303249486371054</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.9207109999999999</v>
+        <v>0.2909543333333333</v>
       </c>
       <c r="N16">
-        <v>2.762133</v>
+        <v>0.8728629999999999</v>
       </c>
       <c r="O16">
-        <v>0.007822750880034444</v>
+        <v>0.003284926960133785</v>
       </c>
       <c r="P16">
-        <v>0.009195385087080598</v>
+        <v>0.003718216220971988</v>
       </c>
       <c r="Q16">
-        <v>0.01940244980666667</v>
+        <v>6.862442505004665</v>
       </c>
       <c r="R16">
-        <v>0.17462204826</v>
+        <v>41.17465503002799</v>
       </c>
       <c r="S16">
-        <v>2.908196274656727E-06</v>
+        <v>0.002849150813185571</v>
       </c>
       <c r="T16">
-        <v>5.000766290346273E-06</v>
+        <v>0.003087327692700218</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.02107333333333333</v>
+        <v>23.585978</v>
       </c>
       <c r="H17">
-        <v>0.06322</v>
+        <v>47.17195599999999</v>
       </c>
       <c r="I17">
-        <v>0.0003717613304137229</v>
+        <v>0.8673406890817245</v>
       </c>
       <c r="J17">
-        <v>0.0005438343520134124</v>
+        <v>0.8303249486371054</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>42.6300515</v>
+        <v>20.562391</v>
       </c>
       <c r="N17">
-        <v>85.260103</v>
+        <v>41.124782</v>
       </c>
       <c r="O17">
-        <v>0.362202985396654</v>
+        <v>0.232153107282743</v>
       </c>
       <c r="P17">
-        <v>0.2838384247424566</v>
+        <v>0.175183083160057</v>
       </c>
       <c r="Q17">
-        <v>0.8983572852766667</v>
+        <v>484.9841017533979</v>
       </c>
       <c r="R17">
-        <v>5.39014371166</v>
+        <v>1939.936407013592</v>
       </c>
       <c r="S17">
-        <v>0.0001346530637308823</v>
+        <v>0.2013558360430778</v>
       </c>
       <c r="T17">
-        <v>0.0001543610857963216</v>
+        <v>0.1454588845269641</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.02107333333333333</v>
+        <v>23.585978</v>
       </c>
       <c r="H18">
-        <v>0.06322</v>
+        <v>47.17195599999999</v>
       </c>
       <c r="I18">
-        <v>0.0003717613304137229</v>
+        <v>0.8673406890817245</v>
       </c>
       <c r="J18">
-        <v>0.0005438343520134124</v>
+        <v>0.8303249486371054</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.460321333333333</v>
+        <v>0.5741476666666667</v>
       </c>
       <c r="N18">
-        <v>19.380964</v>
+        <v>1.722443</v>
       </c>
       <c r="O18">
-        <v>0.05488962811961477</v>
+        <v>0.006482230828885768</v>
       </c>
       <c r="P18">
-        <v>0.06452094353850663</v>
+        <v>0.007337251667557973</v>
       </c>
       <c r="Q18">
-        <v>0.1361405048977778</v>
+        <v>13.54183423475133</v>
       </c>
       <c r="R18">
-        <v>1.22526454408</v>
+        <v>81.25100540850799</v>
       </c>
       <c r="S18">
-        <v>2.040584117566248E-05</v>
+        <v>0.00562230255391258</v>
       </c>
       <c r="T18">
-        <v>3.508870552055772E-05</v>
+        <v>0.00609230311400259</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>27</v>
       </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.02107333333333333</v>
+        <v>23.585978</v>
       </c>
       <c r="H19">
-        <v>0.06322</v>
+        <v>47.17195599999999</v>
       </c>
       <c r="I19">
-        <v>0.0003717613304137229</v>
+        <v>0.8673406890817245</v>
       </c>
       <c r="J19">
-        <v>0.0005438343520134124</v>
+        <v>0.8303249486371054</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.441214666666667</v>
+        <v>0.5758453333333333</v>
       </c>
       <c r="N19">
-        <v>4.323644</v>
+        <v>1.727536</v>
       </c>
       <c r="O19">
-        <v>0.01224517063658978</v>
+        <v>0.006501397792095299</v>
       </c>
       <c r="P19">
-        <v>0.01439379333270538</v>
+        <v>0.00735894679636216</v>
       </c>
       <c r="Q19">
-        <v>0.03037119707555555</v>
+        <v>13.58187536340266</v>
       </c>
       <c r="R19">
-        <v>0.27334077368</v>
+        <v>81.49125218041598</v>
       </c>
       <c r="S19">
-        <v>4.552280927001672E-06</v>
+        <v>0.005638926840990339</v>
       </c>
       <c r="T19">
-        <v>7.827839270106806E-06</v>
+        <v>0.006110317120712602</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1656,19 +1656,19 @@
         <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>53.1378185</v>
+        <v>0.07485399999999999</v>
       </c>
       <c r="H20">
-        <v>106.275637</v>
+        <v>0.224562</v>
       </c>
       <c r="I20">
-        <v>0.9374210424316486</v>
+        <v>0.002752649050233296</v>
       </c>
       <c r="J20">
-        <v>0.9142097782775647</v>
+        <v>0.003952760218716512</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.077153</v>
+        <v>10.402079</v>
       </c>
       <c r="N20">
-        <v>20.154306</v>
+        <v>20.804158</v>
       </c>
       <c r="O20">
-        <v>0.08561976287781047</v>
+        <v>0.117441350183963</v>
       </c>
       <c r="P20">
-        <v>0.06709546746404282</v>
+        <v>0.08862141909929068</v>
       </c>
       <c r="Q20">
-        <v>535.4779271107304</v>
+        <v>0.7786372214659999</v>
       </c>
       <c r="R20">
-        <v>2141.911708442922</v>
+        <v>4.671823328796</v>
       </c>
       <c r="S20">
-        <v>0.08026176736966766</v>
+        <v>0.0003232748210420016</v>
       </c>
       <c r="T20">
-        <v>0.06133933243373214</v>
+        <v>0.0003502992199418799</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1718,19 +1718,19 @@
         <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>53.1378185</v>
+        <v>0.07485399999999999</v>
       </c>
       <c r="H21">
-        <v>106.275637</v>
+        <v>0.224562</v>
       </c>
       <c r="I21">
-        <v>0.9374210424316486</v>
+        <v>0.002752649050233296</v>
       </c>
       <c r="J21">
-        <v>0.9142097782775647</v>
+        <v>0.003952760218716512</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>168.501376</v>
       </c>
       <c r="O21">
-        <v>0.4772197020892965</v>
+        <v>0.6341369869521791</v>
       </c>
       <c r="P21">
-        <v>0.560955985835208</v>
+        <v>0.7177810830557603</v>
       </c>
       <c r="Q21">
-        <v>2984.598511629419</v>
+        <v>4.204333999701332</v>
       </c>
       <c r="R21">
-        <v>17907.59106977651</v>
+        <v>37.83900599731199</v>
       </c>
       <c r="S21">
-        <v>0.4473557906014691</v>
+        <v>0.00174555657485172</v>
       </c>
       <c r="T21">
-        <v>0.5128314474338782</v>
+        <v>0.002837216510850062</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>26</v>
       </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
         <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>53.1378185</v>
+        <v>0.07485399999999999</v>
       </c>
       <c r="H22">
-        <v>106.275637</v>
+        <v>0.224562</v>
       </c>
       <c r="I22">
-        <v>0.9374210424316486</v>
+        <v>0.002752649050233296</v>
       </c>
       <c r="J22">
-        <v>0.9142097782775647</v>
+        <v>0.003952760218716512</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.9207109999999999</v>
+        <v>0.2909543333333333</v>
       </c>
       <c r="N22">
-        <v>2.762133</v>
+        <v>0.8728629999999999</v>
       </c>
       <c r="O22">
-        <v>0.007822750880034444</v>
+        <v>0.003284926960133785</v>
       </c>
       <c r="P22">
-        <v>0.009195385087080598</v>
+        <v>0.003718216220971988</v>
       </c>
       <c r="Q22">
-        <v>48.9245740089535</v>
+        <v>0.02177909566733333</v>
       </c>
       <c r="R22">
-        <v>293.547444053721</v>
+        <v>0.196011861006</v>
       </c>
       <c r="S22">
-        <v>0.007333211284644986</v>
+        <v>9.042251076898011E-06</v>
       </c>
       <c r="T22">
-        <v>0.008406510961636778</v>
+        <v>1.469721716284452E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>53.1378185</v>
+        <v>0.07485399999999999</v>
       </c>
       <c r="H23">
-        <v>106.275637</v>
+        <v>0.224562</v>
       </c>
       <c r="I23">
-        <v>0.9374210424316486</v>
+        <v>0.002752649050233296</v>
       </c>
       <c r="J23">
-        <v>0.9142097782775647</v>
+        <v>0.003952760218716512</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>42.6300515</v>
+        <v>20.562391</v>
       </c>
       <c r="N23">
-        <v>85.260103</v>
+        <v>41.124782</v>
       </c>
       <c r="O23">
-        <v>0.362202985396654</v>
+        <v>0.232153107282743</v>
       </c>
       <c r="P23">
-        <v>0.2838384247424566</v>
+        <v>0.175183083160057</v>
       </c>
       <c r="Q23">
-        <v>2265.267939252653</v>
+        <v>1.539177215914</v>
       </c>
       <c r="R23">
-        <v>9061.071757010612</v>
+        <v>9.235063295483998</v>
       </c>
       <c r="S23">
-        <v>0.3395367001423866</v>
+        <v>0.0006390360302705509</v>
       </c>
       <c r="T23">
-        <v>0.2594878633504544</v>
+        <v>0.0006924567221071796</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>53.1378185</v>
+        <v>0.07485399999999999</v>
       </c>
       <c r="H24">
-        <v>106.275637</v>
+        <v>0.224562</v>
       </c>
       <c r="I24">
-        <v>0.9374210424316486</v>
+        <v>0.002752649050233296</v>
       </c>
       <c r="J24">
-        <v>0.9142097782775647</v>
+        <v>0.003952760218716512</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.460321333333333</v>
+        <v>0.5741476666666667</v>
       </c>
       <c r="N24">
-        <v>19.380964</v>
+        <v>1.722443</v>
       </c>
       <c r="O24">
-        <v>0.05488962811961477</v>
+        <v>0.006482230828885768</v>
       </c>
       <c r="P24">
-        <v>0.06452094353850663</v>
+        <v>0.007337251667557973</v>
       </c>
       <c r="Q24">
-        <v>343.2873824623447</v>
+        <v>0.04297724944066666</v>
       </c>
       <c r="R24">
-        <v>2059.724294774068</v>
+        <v>0.386795244966</v>
       </c>
       <c r="S24">
-        <v>0.05145469241057481</v>
+        <v>1.78433065345254E-05</v>
       </c>
       <c r="T24">
-        <v>0.05898567748659741</v>
+        <v>2.900239650623454E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
         <v>27</v>
       </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
       <c r="E25">
         <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>53.1378185</v>
+        <v>0.07485399999999999</v>
       </c>
       <c r="H25">
-        <v>106.275637</v>
+        <v>0.224562</v>
       </c>
       <c r="I25">
-        <v>0.9374210424316486</v>
+        <v>0.002752649050233296</v>
       </c>
       <c r="J25">
-        <v>0.9142097782775647</v>
+        <v>0.003952760218716512</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,772 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.441214666666667</v>
+        <v>0.5758453333333333</v>
       </c>
       <c r="N25">
-        <v>4.323644</v>
+        <v>1.727536</v>
       </c>
       <c r="O25">
-        <v>0.01224517063658978</v>
+        <v>0.006501397792095299</v>
       </c>
       <c r="P25">
-        <v>0.01439379333270538</v>
+        <v>0.00735894679636216</v>
       </c>
       <c r="Q25">
-        <v>76.58300337687133</v>
+        <v>0.04310432658133333</v>
       </c>
       <c r="R25">
-        <v>459.498020261228</v>
+        <v>0.387938939232</v>
       </c>
       <c r="S25">
-        <v>0.01147888062290541</v>
+        <v>1.789606645759997E-05</v>
       </c>
       <c r="T25">
-        <v>0.01315894661126567</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0.3791873333333333</v>
-      </c>
-      <c r="H26">
-        <v>1.137562</v>
-      </c>
-      <c r="I26">
-        <v>0.006689363532870855</v>
-      </c>
-      <c r="J26">
-        <v>0.009785594640067723</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>10.077153</v>
-      </c>
-      <c r="N26">
-        <v>20.154306</v>
-      </c>
-      <c r="O26">
-        <v>0.08561976287781047</v>
-      </c>
-      <c r="P26">
-        <v>0.06709546746404282</v>
-      </c>
-      <c r="Q26">
-        <v>3.821128773662</v>
-      </c>
-      <c r="R26">
-        <v>22.926772641972</v>
-      </c>
-      <c r="S26">
-        <v>0.0005727417194878751</v>
-      </c>
-      <c r="T26">
-        <v>0.0006565690467889758</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>0.3791873333333333</v>
-      </c>
-      <c r="H27">
-        <v>1.137562</v>
-      </c>
-      <c r="I27">
-        <v>0.006689363532870855</v>
-      </c>
-      <c r="J27">
-        <v>0.009785594640067723</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>56.16712533333333</v>
-      </c>
-      <c r="N27">
-        <v>168.501376</v>
-      </c>
-      <c r="O27">
-        <v>0.4772197020892965</v>
-      </c>
-      <c r="P27">
-        <v>0.560955985835208</v>
-      </c>
-      <c r="Q27">
-        <v>21.29786247614578</v>
-      </c>
-      <c r="R27">
-        <v>191.680762285312</v>
-      </c>
-      <c r="S27">
-        <v>0.003192296072323634</v>
-      </c>
-      <c r="T27">
-        <v>0.005489287888302917</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>0.3791873333333333</v>
-      </c>
-      <c r="H28">
-        <v>1.137562</v>
-      </c>
-      <c r="I28">
-        <v>0.006689363532870855</v>
-      </c>
-      <c r="J28">
-        <v>0.009785594640067723</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>0.9207109999999999</v>
-      </c>
-      <c r="N28">
-        <v>2.762133</v>
-      </c>
-      <c r="O28">
-        <v>0.007822750880034444</v>
-      </c>
-      <c r="P28">
-        <v>0.009195385087080598</v>
-      </c>
-      <c r="Q28">
-        <v>0.3491219488606666</v>
-      </c>
-      <c r="R28">
-        <v>3.142097539746</v>
-      </c>
-      <c r="S28">
-        <v>5.23292244636358E-05</v>
-      </c>
-      <c r="T28">
-        <v>8.998231102149458E-05</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>0.3791873333333333</v>
-      </c>
-      <c r="H29">
-        <v>1.137562</v>
-      </c>
-      <c r="I29">
-        <v>0.006689363532870855</v>
-      </c>
-      <c r="J29">
-        <v>0.009785594640067723</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>42.6300515</v>
-      </c>
-      <c r="N29">
-        <v>85.260103</v>
-      </c>
-      <c r="O29">
-        <v>0.362202985396654</v>
-      </c>
-      <c r="P29">
-        <v>0.2838384247424566</v>
-      </c>
-      <c r="Q29">
-        <v>16.16477554814767</v>
-      </c>
-      <c r="R29">
-        <v>96.988653288886</v>
-      </c>
-      <c r="S29">
-        <v>0.002422907442009333</v>
-      </c>
-      <c r="T29">
-        <v>0.002777527767805049</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>0.3791873333333333</v>
-      </c>
-      <c r="H30">
-        <v>1.137562</v>
-      </c>
-      <c r="I30">
-        <v>0.006689363532870855</v>
-      </c>
-      <c r="J30">
-        <v>0.009785594640067723</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>6.460321333333333</v>
-      </c>
-      <c r="N30">
-        <v>19.380964</v>
-      </c>
-      <c r="O30">
-        <v>0.05488962811961477</v>
-      </c>
-      <c r="P30">
-        <v>0.06452094353850663</v>
-      </c>
-      <c r="Q30">
-        <v>2.449672018863111</v>
-      </c>
-      <c r="R30">
-        <v>22.047048169768</v>
-      </c>
-      <c r="S30">
-        <v>0.0003671766766761937</v>
-      </c>
-      <c r="T30">
-        <v>0.0006313757992625226</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0.3791873333333333</v>
-      </c>
-      <c r="H31">
-        <v>1.137562</v>
-      </c>
-      <c r="I31">
-        <v>0.006689363532870855</v>
-      </c>
-      <c r="J31">
-        <v>0.009785594640067723</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>1.441214666666667</v>
-      </c>
-      <c r="N31">
-        <v>4.323644</v>
-      </c>
-      <c r="O31">
-        <v>0.01224517063658978</v>
-      </c>
-      <c r="P31">
-        <v>0.01439379333270538</v>
-      </c>
-      <c r="Q31">
-        <v>0.5464903462142221</v>
-      </c>
-      <c r="R31">
-        <v>4.918413115928</v>
-      </c>
-      <c r="S31">
-        <v>8.191239791018469E-05</v>
-      </c>
-      <c r="T31">
-        <v>0.0001408518268867643</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>0.128441</v>
-      </c>
-      <c r="H32">
-        <v>0.385323</v>
-      </c>
-      <c r="I32">
-        <v>0.002265868255599604</v>
-      </c>
-      <c r="J32">
-        <v>0.00331464542899184</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>10.077153</v>
-      </c>
-      <c r="N32">
-        <v>20.154306</v>
-      </c>
-      <c r="O32">
-        <v>0.08561976287781047</v>
-      </c>
-      <c r="P32">
-        <v>0.06709546746404282</v>
-      </c>
-      <c r="Q32">
-        <v>1.294319608473</v>
-      </c>
-      <c r="R32">
-        <v>7.765917650837999</v>
-      </c>
-      <c r="S32">
-        <v>0.0001940031027567961</v>
-      </c>
-      <c r="T32">
-        <v>0.0002223976845357602</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0.128441</v>
-      </c>
-      <c r="H33">
-        <v>0.385323</v>
-      </c>
-      <c r="I33">
-        <v>0.002265868255599604</v>
-      </c>
-      <c r="J33">
-        <v>0.00331464542899184</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>56.16712533333333</v>
-      </c>
-      <c r="N33">
-        <v>168.501376</v>
-      </c>
-      <c r="O33">
-        <v>0.4772197020892965</v>
-      </c>
-      <c r="P33">
-        <v>0.560955985835208</v>
-      </c>
-      <c r="Q33">
-        <v>7.214161744938666</v>
-      </c>
-      <c r="R33">
-        <v>64.92745570444799</v>
-      </c>
-      <c r="S33">
-        <v>0.001081316973910837</v>
-      </c>
-      <c r="T33">
-        <v>0.001859370194314283</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0.128441</v>
-      </c>
-      <c r="H34">
-        <v>0.385323</v>
-      </c>
-      <c r="I34">
-        <v>0.002265868255599604</v>
-      </c>
-      <c r="J34">
-        <v>0.00331464542899184</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>0.9207109999999999</v>
-      </c>
-      <c r="N34">
-        <v>2.762133</v>
-      </c>
-      <c r="O34">
-        <v>0.007822750880034444</v>
-      </c>
-      <c r="P34">
-        <v>0.009195385087080598</v>
-      </c>
-      <c r="Q34">
-        <v>0.118257041551</v>
-      </c>
-      <c r="R34">
-        <v>1.064313373959</v>
-      </c>
-      <c r="S34">
-        <v>1.772532289053391E-05</v>
-      </c>
-      <c r="T34">
-        <v>3.047944114671143E-05</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>0.128441</v>
-      </c>
-      <c r="H35">
-        <v>0.385323</v>
-      </c>
-      <c r="I35">
-        <v>0.002265868255599604</v>
-      </c>
-      <c r="J35">
-        <v>0.00331464542899184</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>42.6300515</v>
-      </c>
-      <c r="N35">
-        <v>85.260103</v>
-      </c>
-      <c r="O35">
-        <v>0.362202985396654</v>
-      </c>
-      <c r="P35">
-        <v>0.2838384247424566</v>
-      </c>
-      <c r="Q35">
-        <v>5.4754464447115</v>
-      </c>
-      <c r="R35">
-        <v>32.852678668269</v>
-      </c>
-      <c r="S35">
-        <v>0.0008207042466936852</v>
-      </c>
-      <c r="T35">
-        <v>0.000940823737144828</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>0.128441</v>
-      </c>
-      <c r="H36">
-        <v>0.385323</v>
-      </c>
-      <c r="I36">
-        <v>0.002265868255599604</v>
-      </c>
-      <c r="J36">
-        <v>0.00331464542899184</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>6.460321333333333</v>
-      </c>
-      <c r="N36">
-        <v>19.380964</v>
-      </c>
-      <c r="O36">
-        <v>0.05488962811961477</v>
-      </c>
-      <c r="P36">
-        <v>0.06452094353850663</v>
-      </c>
-      <c r="Q36">
-        <v>0.8297701323746666</v>
-      </c>
-      <c r="R36">
-        <v>7.467931191371999</v>
-      </c>
-      <c r="S36">
-        <v>0.0001243726659179025</v>
-      </c>
-      <c r="T36">
-        <v>0.0002138640505741516</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>0.128441</v>
-      </c>
-      <c r="H37">
-        <v>0.385323</v>
-      </c>
-      <c r="I37">
-        <v>0.002265868255599604</v>
-      </c>
-      <c r="J37">
-        <v>0.00331464542899184</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>1.441214666666667</v>
-      </c>
-      <c r="N37">
-        <v>4.323644</v>
-      </c>
-      <c r="O37">
-        <v>0.01224517063658978</v>
-      </c>
-      <c r="P37">
-        <v>0.01439379333270538</v>
-      </c>
-      <c r="Q37">
-        <v>0.1851110530013333</v>
-      </c>
-      <c r="R37">
-        <v>1.665999477012</v>
-      </c>
-      <c r="S37">
-        <v>2.774594342984918E-05</v>
-      </c>
-      <c r="T37">
-        <v>4.77103212761051E-05</v>
+        <v>2.908815214831166E-05</v>
       </c>
     </row>
   </sheetData>
